--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_EN.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8137332-6D8C-4D55-A4D3-DCBE24AD233B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1492A669-0FA7-468C-8008-D3B834148428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!$C$6:$D$27,Specifications!#REF!,Specifications!#REF!</definedName>
-    <definedName name="Field_type">Specifications!$I$6:$I$27,Specifications!$M$6:$M$27,Specifications!$Q$6:$Q$27,Specifications!$U$6:$U$27,Specifications!$Y$6:$Y$27,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$30:$I$38,Specifications!$M$30:$M$38,Specifications!$Q$30:$Q$38,Specifications!$U$30:$U$38,Specifications!$Y$30:$Y$38</definedName>
+    <definedName name="checkbox">Specifications!$C$6:$D$31,Specifications!#REF!,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$31,Specifications!$M$6:$M$31,Specifications!$Q$6:$Q$31,Specifications!$U$6:$U$31,Specifications!$Y$6:$Y$31,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$34:$I$39,Specifications!$M$34:$M$39,Specifications!$Q$34:$Q$39,Specifications!$U$34:$U$39,Specifications!$Y$34:$Y$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="94">
   <si>
     <t>Website</t>
   </si>
@@ -293,6 +293,30 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>(= Fields with automatic value)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Example Not used field</t>
+  </si>
+  <si>
+    <t>Not Used Field</t>
+  </si>
+  <si>
+    <t>Not_Used_Field</t>
+  </si>
+  <si>
+    <t>Example Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory_field</t>
   </si>
 </sst>
 </file>
@@ -406,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -428,17 +452,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -447,15 +460,6 @@
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -477,15 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -505,7 +500,7 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thin">
@@ -523,46 +518,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -588,44 +544,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -808,19 +727,6 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -923,50 +829,6 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF00A376"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00A376"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF00A376"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00A376"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -1068,6 +930,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF6FEB6F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF6FEB6F"/>
       </left>
@@ -1075,7 +950,33 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF6FEB6F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1086,109 +987,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF6FEB6F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF6FEB6F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF6FEB6F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thick">
         <color rgb="FF6FEB6F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF6FEB6F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF6FEB6F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF6FEB6F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1271,171 +1072,112 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,73 +1187,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <b val="0"/>
@@ -1894,11 +1570,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
-      <tableStyleElement type="firstColumn" dxfId="36"/>
-      <tableStyleElement type="firstRowStripe" dxfId="35"/>
-      <tableStyleElement type="secondRowStripe" dxfId="34"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2009,13 +1685,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2377,10 +2053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,10 +2069,10 @@
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="1.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
     <col min="16" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1"/>
@@ -2404,8 +2080,8 @@
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1"/>
@@ -2415,1370 +2091,1430 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="40"/>
-      <c r="K2" s="40"/>
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
-    <row r="3" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="G3" s="96" t="s">
+      <c r="E3" s="21"/>
+      <c r="G3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="96" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="O3" s="96" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="O3" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="S3" s="93" t="s">
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="S3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="94"/>
-      <c r="U3" s="95"/>
-      <c r="W3" s="93" t="s">
+      <c r="T3" s="59"/>
+      <c r="U3" s="60"/>
+      <c r="W3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="95"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
     </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="Q5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="68" t="s">
+      <c r="S5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="68" t="s">
+      <c r="W5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="69" t="s">
+      <c r="X5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="70" t="s">
+      <c r="Y5" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="57"/>
+    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="G6" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="57"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="57"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="72"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="72"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="36"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="36"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="43"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="43"/>
     </row>
-    <row r="7" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="36"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="36"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="43"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="43"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="24"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="36"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="36"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="43"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="43"/>
+    </row>
+    <row r="9" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="G7" s="56" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="24"/>
+      <c r="G9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="56" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="60"/>
-      <c r="S7" s="74" t="s">
+      <c r="N9"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="36"/>
+      <c r="R9"/>
+      <c r="S9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="73"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="73"/>
+      <c r="U9" s="43"/>
+      <c r="V9"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="59" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="59" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="58"/>
-      <c r="S8" s="74" t="s">
+      <c r="O10" s="35"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="36"/>
+      <c r="S10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="73"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="73"/>
+      <c r="U10" s="43"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="43"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="59" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="24"/>
+      <c r="G11" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="59" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="60"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="73"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="73"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="36"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="43"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="59" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="24"/>
+      <c r="G12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="59" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="59"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="60"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="73"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="73"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="36"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="43"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="43"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="34"/>
-      <c r="G11" s="59" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="24"/>
+      <c r="G13" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="60"/>
-      <c r="O11" s="59" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="36"/>
+      <c r="O13" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="60" t="s">
+      <c r="Q13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="74"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="73"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="73"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="43"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="56" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="24"/>
+      <c r="G14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="56" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="56" t="s">
+      <c r="O14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q12" s="57" t="s">
+      <c r="Q14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="74"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="73"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="73"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="43"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="43"/>
     </row>
-    <row r="13" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+    <row r="15" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="G13" s="61" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="24"/>
+      <c r="G15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="61" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="62" t="s">
+      <c r="M15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="61" t="s">
+      <c r="N15"/>
+      <c r="O15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="48" t="s">
+      <c r="P15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="62" t="s">
+      <c r="Q15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="75"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="76"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="76"/>
+      <c r="R15"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="43"/>
+      <c r="V15"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="63" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="24"/>
+      <c r="G16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="63" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="64" t="s">
+      <c r="M16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q14" s="64" t="s">
+      <c r="Q16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="74"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="73"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="73"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="43"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="43"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="34"/>
-      <c r="G15" s="59" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="24"/>
+      <c r="G17" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="59" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="59" t="s">
+      <c r="O17" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="60" t="s">
+      <c r="Q17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="74"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="73"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="73"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="43"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="43"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="34"/>
-      <c r="G16" s="59" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="59" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="60" t="s">
+      <c r="M18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="59" t="s">
+      <c r="O18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="Q18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="74"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="73"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="73"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="43"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="43"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="59" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="59" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="60"/>
-      <c r="O17" s="59" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="36"/>
+      <c r="O19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="74"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="73"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="73"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="43"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="60"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="60"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="73"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="73"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="36"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="36"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="43"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="43"/>
     </row>
-    <row r="19" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+    <row r="21" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="G19" s="61" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="24"/>
+      <c r="G21" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="62" t="s">
+      <c r="I21" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="62"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="62"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="76"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="76"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="36"/>
+      <c r="N21"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="36"/>
+      <c r="R21"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="43"/>
+      <c r="V21"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="34"/>
-      <c r="G20" s="59" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="24"/>
+      <c r="G22" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I22" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="59" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="60" t="s">
+      <c r="M22" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="59" t="s">
+      <c r="O22" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q22" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="74"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="73"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="73"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="43"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="43"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="34"/>
-      <c r="G21" s="56" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="24"/>
+      <c r="G23" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I23" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="56" t="s">
+      <c r="J23" s="1"/>
+      <c r="K23" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="57" t="s">
+      <c r="M23" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="56" t="s">
+      <c r="O23" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="57" t="s">
+      <c r="Q23" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="71"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="72"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="72"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="43"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="43"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="56" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="24"/>
+      <c r="G24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I24" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="57"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="57"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="72"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="72"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="36"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="36"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="43"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="43"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="34"/>
-      <c r="G23" s="56" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="24"/>
+      <c r="G25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I25" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="6" t="s">
+      <c r="J25" s="1"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M23" s="57" t="s">
+      <c r="M25" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="56" t="s">
+      <c r="O25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="57" t="s">
+      <c r="Q25" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="71"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="72"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="72"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="43"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="43"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="34"/>
-      <c r="G24" s="56" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="24"/>
+      <c r="G26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I26" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="57"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="57"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="72"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="72"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="36"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="36"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="43"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="43"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="34"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="56" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="24"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M25" s="57" t="s">
+      <c r="M27" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="56"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="57"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="72"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="72"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="36"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="43"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="43"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
-      <c r="G26" s="56" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="24"/>
+      <c r="G28" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="57" t="s">
+      <c r="I28" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="57"/>
-      <c r="O26" s="56" t="s">
+      <c r="J28" s="1"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="36"/>
+      <c r="O28" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="57" t="s">
+      <c r="Q28" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="71"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="72"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="72"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="43"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="43"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="35"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="67"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="67"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="79"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="79"/>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="24"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="36"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="36"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="43"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="43"/>
     </row>
-    <row r="28" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="8"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="9"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="9"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="52"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="9"/>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="24"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="36"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="36"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="43"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="43"/>
     </row>
-    <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84" t="s">
+    <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="25"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="39"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="47"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="47"/>
+    </row>
+    <row r="32" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="6"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="7"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="7"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="31"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="7"/>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G33" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H33" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I33" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K33" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="54" t="s">
+      <c r="L33" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="55" t="s">
+      <c r="M33" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="53" t="s">
+      <c r="O33" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P29" s="54" t="s">
+      <c r="P33" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="55" t="s">
+      <c r="Q33" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="68" t="s">
+      <c r="S33" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="T29" s="69" t="s">
+      <c r="T33" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="U29" s="70" t="s">
+      <c r="U33" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="W29" s="68" t="s">
+      <c r="W33" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X29" s="69" t="s">
+      <c r="X33" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Y29" s="70" t="s">
+      <c r="Y33" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="31"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="60"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="60"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="60"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="73"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="73"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="31"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="60"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="60"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="60"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="73"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="73"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="31"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="60"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="60"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="60"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="73"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="73"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="31"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="60"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="60"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="60"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="73"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="73"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="31"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="60"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="60"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="60"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="73"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="73"/>
+    <row r="34" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="22"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="36"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="36"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="36"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="43"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="43"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="31"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="60"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="60"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="60"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="73"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="73"/>
+      <c r="A35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="22"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="36"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="36"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="36"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="43"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="43"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="31"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="60"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="60"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="60"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="73"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="73"/>
+      <c r="A36" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="22"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="36"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="36"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="36"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="43"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="43"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="31"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="60"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="60"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="60"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="73"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="73"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="22"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="36"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="36"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="36"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="43"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="43"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="32"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="67"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="67"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="67"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="79"/>
-      <c r="W38" s="77"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="79"/>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="22"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="36"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="36"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="36"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="43"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="43"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="23"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="39"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="47"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="47"/>
+    </row>
+    <row r="40" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A30:Y38" name="Questionnaire"/>
-    <protectedRange sqref="A6:G6 A7:F7 A8:G27 J6:K6 J7 J8:K27 N6:O27" name="Contact Fields"/>
-    <protectedRange sqref="S3:Y5 V6:Y8 S9:Y38" name="customEntity"/>
-    <protectedRange sqref="G7 K7" name="Contact Fields_2"/>
-    <protectedRange sqref="H6:I27" name="Contact Fields_5"/>
-    <protectedRange sqref="L6:M27" name="Contact Fields_6"/>
-    <protectedRange sqref="P6:Q27" name="Contact Fields_7"/>
-    <protectedRange sqref="S6:U8" name="customEntity_1"/>
+    <protectedRange sqref="A35:Y39 E34:Y34" name="Questionnaire"/>
+    <protectedRange sqref="A6:G8 A9:F9 A10:G31 K6:K8 K10:K31 O6:O31" name="Contact Fields"/>
+    <protectedRange sqref="S3:Y5 S32:Y39 S11:U31 V6:Y31" name="customEntity"/>
+    <protectedRange sqref="G9 K9" name="Contact Fields_2"/>
+    <protectedRange sqref="H6:I31" name="Contact Fields_5"/>
+    <protectedRange sqref="L6:M31" name="Contact Fields_6"/>
+    <protectedRange sqref="P6:Q31" name="Contact Fields_7"/>
+    <protectedRange sqref="S6:U10" name="customEntity_1"/>
+    <protectedRange sqref="A34:D34" name="Questionnaire_1"/>
   </protectedRanges>
-  <mergeCells count="13">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
+  <mergeCells count="11">
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A7:F7 A8:G24 A25:F25 A28:AG28 A26:G27 N24:O27 N23 J7 J8:K27 N7:O22 R9:AG27 R7:R8 V7:AG8">
-    <cfRule type="expression" dxfId="33" priority="61">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="F9 A18:G18 F27 A32:I32 A31:G31 O31 K31 R31:U31 F10:G17 F28:G30 F19:G26 G6:G30 S6:U30 W31:Y31 K32:Y32">
+    <cfRule type="expression" dxfId="27" priority="69">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="62">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="26" priority="70">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30:Y38 S30:U38 O30:Q38 K30:M38 G30:I38">
-    <cfRule type="expression" dxfId="31" priority="59">
-      <formula>$C30="x"</formula>
+  <conditionalFormatting sqref="W34:Y39 S34:U39 O34:Q39 K34:M39 G34:I39">
+    <cfRule type="expression" dxfId="25" priority="67">
+      <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="60">
-      <formula>$D30="x"</formula>
+    <cfRule type="expression" dxfId="24" priority="68">
+      <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="29" priority="47">
-      <formula>$C25="x"</formula>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="expression" dxfId="23" priority="55">
+      <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="48">
-      <formula>$D25="x"</formula>
+    <cfRule type="expression" dxfId="22" priority="56">
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="27" priority="39">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="21" priority="47">
+      <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="40">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="20" priority="48">
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
-    <cfRule type="expression" dxfId="25" priority="31">
-      <formula>$C23="x"</formula>
+  <conditionalFormatting sqref="H6:I31">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
-      <formula>$D23="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="expression" dxfId="17" priority="27">
+      <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="16" priority="28">
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I24 H26:I27">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="H9:I9">
+    <cfRule type="expression" dxfId="15" priority="25">
+      <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="14" priority="26">
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:I25">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$C25="x"</formula>
+  <conditionalFormatting sqref="L31:M31">
+    <cfRule type="expression" dxfId="13" priority="23">
+      <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$D25="x"</formula>
+    <cfRule type="expression" dxfId="12" priority="24">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="P31:Q31">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:M22 L24:M27">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="S9:U10">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:M7">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A19:E30 A6:E17">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23:M23">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C23="x"</formula>
+  <conditionalFormatting sqref="O6:O30 K6:K30">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D23="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:Q7 P9:Q22 P24:Q27">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="P6:Q30 L6:M30">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q8">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q8">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23:Q23">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C23="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D23="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7:U8">
+  <conditionalFormatting sqref="W6:Y30">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C7="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D7="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D27" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D31" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28" xr:uid="{125A7438-0B16-46E7-85C2-AAA629C0F6EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U32" xr:uid="{125A7438-0B16-46E7-85C2-AAA629C0F6EA}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I27 M6:M27 Q6:Q27 U6:U27 Y6:Y27 I30:I38 M30:M38 Q30:Q38 U30:U38 Y30:Y38" xr:uid="{C9A9CA8E-BB67-419B-B85B-44068F276D8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I31 M6:M31 Q6:Q31 U6:U31 Y6:Y31 Y34:Y39 U34:U39 Q34:Q39 M34:M39 I34:I39" xr:uid="{C9A9CA8E-BB67-419B-B85B-44068F276D8E}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1492A669-0FA7-468C-8008-D3B834148428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8363782B-D895-42A2-9640-40E8D429A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -1153,6 +1153,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1170,18 +1182,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,28 +2059,28 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" customWidth="1"/>
+    <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="1.7265625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="1.7265625" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" customWidth="1"/>
     <col min="16" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.7265625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1"/>
+    <col min="22" max="22" width="1.54296875" customWidth="1"/>
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
@@ -2091,11 +2091,11 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G2" s="27"/>
       <c r="K2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -2107,35 +2107,35 @@
         <v>32</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="O3" s="61" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="O3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="S3" s="58" t="s">
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="S3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="60"/>
-      <c r="W3" s="58" t="s">
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
+      <c r="W3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="60"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="54"/>
     </row>
-    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:33" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="48" t="s">
         <v>20</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="43"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="43"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
@@ -2287,7 +2287,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="43"/>
     </row>
-    <row r="9" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="43"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="43"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2454,7 +2454,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="43"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="43"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="43"/>
     </row>
-    <row r="15" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="AF15"/>
       <c r="AG15"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="43"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="43"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="43"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="43"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="43"/>
     </row>
-    <row r="21" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -2823,7 +2823,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="43"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="43"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="43"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="43"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="43"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="43"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="43"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
@@ -3103,7 +3103,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="43"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
@@ -3126,7 +3126,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="43"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9"/>
       <c r="B31" s="13"/>
       <c r="C31" s="16"/>
@@ -3149,7 +3149,7 @@
       <c r="X31" s="46"/>
       <c r="Y31" s="47"/>
     </row>
-    <row r="32" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
       <c r="I32" s="7"/>
@@ -3167,7 +3167,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="49" t="s">
         <v>21</v>
       </c>
@@ -3225,13 +3225,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="22"/>
       <c r="G34" s="35"/>
       <c r="H34" s="4"/>
@@ -3249,15 +3249,15 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="43"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="22"/>
       <c r="G35" s="35"/>
       <c r="H35" s="4"/>
@@ -3275,15 +3275,15 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="43"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="22"/>
       <c r="G36" s="35"/>
       <c r="H36" s="4"/>
@@ -3301,11 +3301,11 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="43"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="18"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="22"/>
       <c r="G37" s="35"/>
       <c r="H37" s="4"/>
@@ -3323,11 +3323,11 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="43"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="22"/>
       <c r="G38" s="35"/>
       <c r="H38" s="4"/>
@@ -3345,11 +3345,11 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="43"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="19"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="23"/>
       <c r="G39" s="37"/>
       <c r="H39" s="38"/>
@@ -3367,7 +3367,7 @@
       <c r="X39" s="46"/>
       <c r="Y39" s="47"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
@@ -3382,17 +3382,17 @@
     <protectedRange sqref="A34:D34" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F9 A18:G18 F27 A32:I32 A31:G31 O31 K31 R31:U31 F10:G17 F28:G30 F19:G26 G6:G30 S6:U30 W31:Y31 K32:Y32">
@@ -3525,15 +3525,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3742,6 +3733,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3749,14 +3749,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3771,6 +3763,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8363782B-D895-42A2-9640-40E8D429A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8CD735-6849-4022-88F4-70DBD3A94CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -1153,18 +1153,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1182,6 +1170,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2055,32 +2055,32 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" activeCellId="13" sqref="I6:I31 M6:M31 Q6:Q31 U6:U31 Y9 Y8 Y7 Y6 Y10:Y31 Y34:Y39 U34:U39 Q34:Q39 M34:M39 I34:I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" customWidth="1"/>
-    <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="1.7265625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7265625" customWidth="1"/>
-    <col min="15" max="15" width="20.1796875" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
     <col min="16" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7265625" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="1.54296875" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1"/>
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
@@ -2091,11 +2091,11 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="27"/>
       <c r="K2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -2107,35 +2107,35 @@
         <v>32</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="O3" s="55" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="O3" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="S3" s="52" t="s">
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="S3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="W3" s="52" t="s">
+      <c r="T3" s="59"/>
+      <c r="U3" s="60"/>
+      <c r="W3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="54"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
     </row>
-    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:33" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>20</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="43"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="43"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
@@ -2287,7 +2287,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="43"/>
     </row>
-    <row r="9" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="43"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="43"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2454,7 +2454,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="43"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="43"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="43"/>
     </row>
-    <row r="15" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="AF15"/>
       <c r="AG15"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="43"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="43"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="43"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="43"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="43"/>
     </row>
-    <row r="21" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -2823,7 +2823,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="43"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="43"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="43"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="43"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="43"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="43"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="43"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
@@ -3103,7 +3103,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="43"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
@@ -3126,7 +3126,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="43"/>
     </row>
-    <row r="31" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="13"/>
       <c r="C31" s="16"/>
@@ -3149,7 +3149,7 @@
       <c r="X31" s="46"/>
       <c r="Y31" s="47"/>
     </row>
-    <row r="32" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
       <c r="I32" s="7"/>
@@ -3167,7 +3167,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
         <v>21</v>
       </c>
@@ -3225,13 +3225,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="22"/>
       <c r="G34" s="35"/>
       <c r="H34" s="4"/>
@@ -3249,15 +3249,15 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="43"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="22"/>
       <c r="G35" s="35"/>
       <c r="H35" s="4"/>
@@ -3275,15 +3275,15 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="43"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="22"/>
       <c r="G36" s="35"/>
       <c r="H36" s="4"/>
@@ -3301,11 +3301,11 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="43"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="22"/>
       <c r="G37" s="35"/>
       <c r="H37" s="4"/>
@@ -3323,11 +3323,11 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="43"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="22"/>
       <c r="G38" s="35"/>
       <c r="H38" s="4"/>
@@ -3345,11 +3345,11 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="43"/>
     </row>
-    <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="23"/>
       <c r="G39" s="37"/>
       <c r="H39" s="38"/>
@@ -3367,7 +3367,7 @@
       <c r="X39" s="46"/>
       <c r="Y39" s="47"/>
     </row>
-    <row r="40" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
@@ -3382,17 +3382,17 @@
     <protectedRange sqref="A34:D34" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F9 A18:G18 F27 A32:I32 A31:G31 O31 K31 R31:U31 F10:G17 F28:G30 F19:G26 G6:G30 S6:U30 W31:Y31 K32:Y32">
@@ -3514,8 +3514,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U32" xr:uid="{125A7438-0B16-46E7-85C2-AAA629C0F6EA}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I31 M6:M31 Q6:Q31 U6:U31 Y6:Y31 Y34:Y39 U34:U39 Q34:Q39 M34:M39 I34:I39" xr:uid="{C9A9CA8E-BB67-419B-B85B-44068F276D8E}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I31 M6:M31 Q6:Q31 U6:U31 Y9 Y8 Y7 Y6 Y10:Y31 Y34:Y39 U34:U39 Q34:Q39 M34:M39 I34:I39" xr:uid="{A67AB3F5-1522-495A-8530-7BB4696DDEB3}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3525,6 +3525,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3733,15 +3742,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3749,6 +3749,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3763,14 +3771,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
